--- a/biology/Zoologie/Glaucothoé/Glaucothoé.xlsx
+++ b/biology/Zoologie/Glaucothoé/Glaucothoé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glaucotho%C3%A9</t>
+          <t>Glaucothoé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La larve glaucothoé est le stade larvaire ultime des crustacés de l'infra-ordre des Anomura (bernards l'hermite et crabes royaux). Elle succède au stade zoé, et est donc homologue de la larve mégalope des Brachyura.
 Au cours du développement de l'animal, la larve glaucothoé est suivie par le stade juvénile.
